--- a/030-試験/031-単体試験計画書兼結果書（ItemsDAO）.xlsx
+++ b/030-試験/031-単体試験計画書兼結果書（ItemsDAO）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\030-試験\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BB3FF-A78A-43F4-B74A-FFC78C13B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE41DF2-1E5F-4B9C-A266-62274A77FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6033112-71BA-4037-88EF-FEBDF2F3FF10}"/>
+    <workbookView xWindow="-10245" yWindow="1350" windowWidth="21570" windowHeight="11085" activeTab="1" xr2:uid="{A6033112-71BA-4037-88EF-FEBDF2F3FF10}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト_前提条件" sheetId="4" r:id="rId1"/>
@@ -1945,6 +1945,54 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1984,58 +2032,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2056,32 +2083,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2093,6 +2099,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2112,30 +2136,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2466,7 +2466,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:R2"/>
+      <selection pane="bottomLeft" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2475,130 +2475,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="112" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="99">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="115">
         <v>45574</v>
       </c>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="100" t="s">
+      <c r="AL1" s="115"/>
+      <c r="AM1" s="115"/>
+      <c r="AN1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="106"/>
+      <c r="AV1" s="117"/>
+      <c r="AW1" s="120"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="121"/>
+      <c r="AZ1" s="122"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="110" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111" t="s">
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="110" t="s">
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="111" t="s">
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="108"/>
-      <c r="AZ2" s="109"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="125"/>
     </row>
     <row r="3" spans="1:72" ht="15" customHeight="1" thickTop="1">
       <c r="B3" s="32"/>
@@ -2668,54 +2668,54 @@
       <c r="BT4" s="46"/>
     </row>
     <row r="5" spans="1:72" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="113" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="115"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="118"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="104"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1">
       <c r="A7" s="59">
@@ -7007,11 +7007,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:U6"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="A1:R2"/>
     <mergeCell ref="AK1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
     <mergeCell ref="AW1:AZ2"/>
@@ -7020,6 +7015,11 @@
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AK2:AT2"/>
     <mergeCell ref="S1:V1"/>
+    <mergeCell ref="E5:U6"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="A1:R2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7034,7 +7034,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CP6" sqref="CP6"/>
-      <selection pane="bottomLeft" sqref="A1:R2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -7043,142 +7043,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="112" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="112" t="s">
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="99">
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="115">
         <v>45574</v>
       </c>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="100" t="s">
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="105"/>
-      <c r="BF1" s="106"/>
+      <c r="BB1" s="117"/>
+      <c r="BC1" s="120"/>
+      <c r="BD1" s="121"/>
+      <c r="BE1" s="121"/>
+      <c r="BF1" s="122"/>
     </row>
     <row r="2" spans="1:73" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="110" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="111" t="s">
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="110" t="s">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="110"/>
-      <c r="AO2" s="110"/>
-      <c r="AP2" s="110"/>
-      <c r="AQ2" s="111" t="s">
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
-      <c r="AX2" s="111"/>
-      <c r="AY2" s="111"/>
-      <c r="AZ2" s="111"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="109"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="119"/>
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="125"/>
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1" thickTop="1"/>
     <row r="4" spans="1:73" ht="15" customHeight="1">
@@ -7242,180 +7242,180 @@
       <c r="BF4" s="24"/>
     </row>
     <row r="5" spans="1:73" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="142" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="131" t="s">
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="130" t="s">
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="131"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="136" t="s">
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="141"/>
+      <c r="AO5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="136" t="s">
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="130"/>
+      <c r="BA5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="136" t="s">
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="138"/>
-      <c r="BN5" s="136" t="s">
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="130"/>
+      <c r="BN5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="BO5" s="137"/>
-      <c r="BP5" s="137"/>
-      <c r="BQ5" s="138"/>
-      <c r="BR5" s="136" t="s">
+      <c r="BO5" s="129"/>
+      <c r="BP5" s="129"/>
+      <c r="BQ5" s="130"/>
+      <c r="BR5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="BS5" s="137"/>
-      <c r="BT5" s="137"/>
-      <c r="BU5" s="138"/>
+      <c r="BS5" s="129"/>
+      <c r="BT5" s="129"/>
+      <c r="BU5" s="130"/>
     </row>
     <row r="6" spans="1:73" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="142" t="s">
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="142" t="s">
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134"/>
-      <c r="AM6" s="134"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140"/>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="140"/>
-      <c r="AZ6" s="141"/>
-      <c r="BA6" s="139"/>
-      <c r="BB6" s="140"/>
-      <c r="BC6" s="140"/>
-      <c r="BD6" s="140"/>
-      <c r="BE6" s="140"/>
-      <c r="BF6" s="140"/>
-      <c r="BG6" s="140"/>
-      <c r="BH6" s="140"/>
-      <c r="BI6" s="140"/>
-      <c r="BJ6" s="140"/>
-      <c r="BK6" s="139"/>
-      <c r="BL6" s="140"/>
-      <c r="BM6" s="141"/>
-      <c r="BN6" s="139"/>
-      <c r="BO6" s="140"/>
-      <c r="BP6" s="140"/>
-      <c r="BQ6" s="141"/>
-      <c r="BR6" s="139"/>
-      <c r="BS6" s="140"/>
-      <c r="BT6" s="140"/>
-      <c r="BU6" s="141"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="144"/>
+      <c r="AO6" s="131"/>
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132"/>
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132"/>
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132"/>
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="132"/>
+      <c r="BJ6" s="132"/>
+      <c r="BK6" s="131"/>
+      <c r="BL6" s="132"/>
+      <c r="BM6" s="133"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
+      <c r="BP6" s="132"/>
+      <c r="BQ6" s="133"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="132"/>
+      <c r="BT6" s="132"/>
+      <c r="BU6" s="133"/>
     </row>
     <row r="7" spans="1:73" ht="15" customHeight="1">
       <c r="A7" s="29" t="s">
@@ -44625,6 +44625,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="AA5:AN6"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="S1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="U5:Z6"/>
+    <mergeCell ref="BC1:BF2"/>
+    <mergeCell ref="S2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="BA1:BB2"/>
     <mergeCell ref="BK5:BM6"/>
     <mergeCell ref="BA5:BJ6"/>
     <mergeCell ref="BN5:BQ6"/>
@@ -44634,21 +44649,6 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="AO5:AZ6"/>
-    <mergeCell ref="BC1:BF2"/>
-    <mergeCell ref="S2:AB2"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="BA1:BB2"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="AA5:AN6"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="S1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="U5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -44679,60 +44679,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" customHeight="1" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="145" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="146"/>
-      <c r="K1" s="157">
+      <c r="J1" s="148"/>
+      <c r="K1" s="151">
         <v>45567</v>
       </c>
-      <c r="L1" s="158"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="90">
         <v>45568</v>
       </c>
-      <c r="N1" s="161" t="s">
+      <c r="N1" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="155"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="147" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="147" t="s">
+      <c r="G2" s="158"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="148"/>
-      <c r="K2" s="159" t="s">
+      <c r="J2" s="150"/>
+      <c r="K2" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="160"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="162"/>
-      <c r="O2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickTop="1">
       <c r="A3" s="86" t="s">
@@ -45282,17 +45282,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45316,60 +45316,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="145" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="146"/>
-      <c r="K1" s="157">
+      <c r="J1" s="148"/>
+      <c r="K1" s="151">
         <v>45567</v>
       </c>
-      <c r="L1" s="158"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="90">
         <v>45568</v>
       </c>
-      <c r="N1" s="161" t="s">
+      <c r="N1" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="155"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="13.8" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="147" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="147" t="s">
+      <c r="G2" s="158"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="148"/>
-      <c r="K2" s="159" t="s">
+      <c r="J2" s="150"/>
+      <c r="K2" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="160"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="162"/>
-      <c r="O2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickTop="1">
       <c r="A3" s="86" t="s">
@@ -45685,17 +45685,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45720,60 +45720,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="163"/>
       <c r="G1" s="164"/>
       <c r="H1" s="165"/>
-      <c r="I1" s="145" t="s">
+      <c r="I1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="146"/>
-      <c r="K1" s="157">
+      <c r="J1" s="148"/>
+      <c r="K1" s="151">
         <v>45567</v>
       </c>
-      <c r="L1" s="158"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="90">
         <v>45568</v>
       </c>
-      <c r="N1" s="161" t="s">
+      <c r="N1" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="155"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="13.8" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="147" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="147" t="s">
+      <c r="G2" s="158"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="148"/>
-      <c r="K2" s="159" t="s">
+      <c r="J2" s="150"/>
+      <c r="K2" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="160"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="162"/>
-      <c r="O2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickTop="1">
       <c r="A3" s="86" t="s">
@@ -46037,17 +46037,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46071,60 +46071,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" customHeight="1" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="145" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="146"/>
-      <c r="K1" s="157">
+      <c r="J1" s="148"/>
+      <c r="K1" s="151">
         <v>45567</v>
       </c>
-      <c r="L1" s="158"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="90">
         <v>45568</v>
       </c>
-      <c r="N1" s="161" t="s">
+      <c r="N1" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="155"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="147" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="147" t="s">
+      <c r="G2" s="158"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="148"/>
-      <c r="K2" s="159" t="s">
+      <c r="J2" s="150"/>
+      <c r="K2" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="160"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="162"/>
-      <c r="O2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" customHeight="1" thickTop="1">
       <c r="A3" s="98" t="s">
@@ -46147,17 +46147,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
